--- a/design/游戏数值策划.xlsx
+++ b/design/游戏数值策划.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\13548\Documents\GitHub\GPAplusplus\design\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9924"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18465" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="79">
   <si>
     <t>单位</t>
   </si>
@@ -48,224 +53,220 @@
     <t>建造费用</t>
   </si>
   <si>
-    <t>建造耗时</t>
+    <t>对空</t>
+  </si>
+  <si>
+    <t>对地</t>
+  </si>
+  <si>
+    <t>装甲类型</t>
+  </si>
+  <si>
+    <t>攻击类型</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>资源采集者</t>
+  </si>
+  <si>
+    <t>主基地</t>
+  </si>
+  <si>
+    <t>地面</t>
+  </si>
+  <si>
+    <t>无甲</t>
+  </si>
+  <si>
+    <t>采集</t>
+  </si>
+  <si>
+    <t>普通士兵</t>
+  </si>
+  <si>
+    <t>兵营</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>进阶士兵兵</t>
+  </si>
+  <si>
+    <t>精英士兵</t>
+  </si>
+  <si>
+    <t>兵营、实验室</t>
+  </si>
+  <si>
+    <t>布甲</t>
+  </si>
+  <si>
+    <t>穿刺</t>
+  </si>
+  <si>
+    <t>超级士兵</t>
+  </si>
+  <si>
+    <t>兵营，实验室、中心</t>
+  </si>
+  <si>
+    <t>特殊</t>
+  </si>
+  <si>
+    <t>天谴</t>
+  </si>
+  <si>
+    <t>只能建造一个</t>
+  </si>
+  <si>
+    <t>普通战车</t>
+  </si>
+  <si>
+    <t>战车工厂</t>
+  </si>
+  <si>
+    <t>重甲</t>
+  </si>
+  <si>
+    <t>炮击</t>
+  </si>
+  <si>
+    <t>变形战车</t>
+  </si>
+  <si>
+    <t>地面/空中</t>
+  </si>
+  <si>
+    <t>可变性</t>
+  </si>
+  <si>
+    <t>特殊战车</t>
+  </si>
+  <si>
+    <t>战车工厂、实验室</t>
+  </si>
+  <si>
+    <t>对某种类型的单位造成1.5倍伤害</t>
+  </si>
+  <si>
+    <t>进阶战车</t>
+  </si>
+  <si>
+    <t>轻甲</t>
+  </si>
+  <si>
+    <t>天启战车</t>
+  </si>
+  <si>
+    <t>建筑甲</t>
+  </si>
+  <si>
+    <t>极速战车</t>
+  </si>
+  <si>
+    <t>天灾战车</t>
+  </si>
+  <si>
+    <t>战车工厂、实验室、中心</t>
+  </si>
+  <si>
+    <t>只能存在一个</t>
+  </si>
+  <si>
+    <t>普通空战单位</t>
+  </si>
+  <si>
+    <t>空战基地</t>
+  </si>
+  <si>
+    <t>空中</t>
+  </si>
+  <si>
+    <t>机甲</t>
+  </si>
+  <si>
+    <t>特殊空战单位Ⅰ</t>
+  </si>
+  <si>
+    <t>空战基地、实验室</t>
+  </si>
+  <si>
+    <t>特殊空战单位Ⅱ</t>
+  </si>
+  <si>
+    <t>特殊空战单位Ⅲ</t>
+  </si>
+  <si>
+    <t>普通战船</t>
+  </si>
+  <si>
+    <t>水下战舰</t>
+  </si>
+  <si>
+    <t>反潜战船</t>
+  </si>
+  <si>
+    <t>超级武器</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>实验室</t>
+  </si>
+  <si>
+    <t>兵营、战车工厂</t>
+  </si>
+  <si>
+    <t>中心</t>
+  </si>
+  <si>
+    <t>船坞</t>
+  </si>
+  <si>
+    <t>矿场</t>
+  </si>
+  <si>
+    <t>防御建筑Ⅰ</t>
+  </si>
+  <si>
+    <t>防御建筑Ⅱ</t>
+  </si>
+  <si>
+    <t>视野基站</t>
+  </si>
+  <si>
+    <t>伤害计算公式：攻击力*（100-防御力）*伤害类型百分比=最终伤害值</t>
+  </si>
+  <si>
+    <t>建造时间单位：3秒</t>
+  </si>
+  <si>
+    <t>速度：单位每秒可以移动的单元格数</t>
+  </si>
+  <si>
+    <t>视野单位：5个长度单位</t>
+  </si>
+  <si>
+    <t>采集速度：每秒5金/每单位</t>
+  </si>
+  <si>
+    <t>建造耗时(/s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>单位类型</t>
-  </si>
-  <si>
-    <t>对空</t>
-  </si>
-  <si>
-    <t>对地</t>
-  </si>
-  <si>
-    <t>装甲类型</t>
-  </si>
-  <si>
-    <t>攻击类型</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>资源采集者</t>
-  </si>
-  <si>
-    <t>主基地</t>
-  </si>
-  <si>
-    <t>地面</t>
-  </si>
-  <si>
-    <t>无甲</t>
-  </si>
-  <si>
-    <t>采集</t>
-  </si>
-  <si>
-    <t>普通士兵</t>
-  </si>
-  <si>
-    <t>兵营</t>
-  </si>
-  <si>
-    <t>普通</t>
-  </si>
-  <si>
-    <t>进阶士兵兵</t>
-  </si>
-  <si>
-    <t>精英士兵</t>
-  </si>
-  <si>
-    <t>兵营、实验室</t>
-  </si>
-  <si>
-    <t>布甲</t>
-  </si>
-  <si>
-    <t>穿刺</t>
-  </si>
-  <si>
-    <t>超级士兵</t>
-  </si>
-  <si>
-    <t>兵营，实验室、中心</t>
-  </si>
-  <si>
-    <t>特殊</t>
-  </si>
-  <si>
-    <t>天谴</t>
-  </si>
-  <si>
-    <t>只能建造一个</t>
-  </si>
-  <si>
-    <t>普通战车</t>
-  </si>
-  <si>
-    <t>战车工厂</t>
-  </si>
-  <si>
-    <t>重甲</t>
-  </si>
-  <si>
-    <t>炮击</t>
-  </si>
-  <si>
-    <t>变形战车</t>
-  </si>
-  <si>
-    <t>地面/空中</t>
-  </si>
-  <si>
-    <t>可变性</t>
-  </si>
-  <si>
-    <t>特殊战车</t>
-  </si>
-  <si>
-    <t>战车工厂、实验室</t>
-  </si>
-  <si>
-    <t>对某种类型的单位造成1.5倍伤害</t>
-  </si>
-  <si>
-    <t>进阶战车</t>
-  </si>
-  <si>
-    <t>轻甲</t>
-  </si>
-  <si>
-    <t>天启战车</t>
-  </si>
-  <si>
-    <t>建筑甲</t>
-  </si>
-  <si>
-    <t>极速战车</t>
-  </si>
-  <si>
-    <t>天灾战车</t>
-  </si>
-  <si>
-    <t>战车工厂、实验室、中心</t>
-  </si>
-  <si>
-    <t>只能存在一个</t>
-  </si>
-  <si>
-    <t>普通空战单位</t>
-  </si>
-  <si>
-    <t>空战基地</t>
-  </si>
-  <si>
-    <t>空中</t>
-  </si>
-  <si>
-    <t>机甲</t>
-  </si>
-  <si>
-    <t>特殊空战单位Ⅰ</t>
-  </si>
-  <si>
-    <t>空战基地、实验室</t>
-  </si>
-  <si>
-    <t>特殊空战单位Ⅱ</t>
-  </si>
-  <si>
-    <t>特殊空战单位Ⅲ</t>
-  </si>
-  <si>
-    <t>普通战船</t>
-  </si>
-  <si>
-    <t>水下战舰</t>
-  </si>
-  <si>
-    <t>反潜战船</t>
-  </si>
-  <si>
-    <t>超级武器</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>实验室</t>
-  </si>
-  <si>
-    <t>兵营、战车工厂</t>
-  </si>
-  <si>
-    <t>中心</t>
-  </si>
-  <si>
-    <t>船坞</t>
-  </si>
-  <si>
-    <t>矿场</t>
-  </si>
-  <si>
-    <t>防御建筑Ⅰ</t>
-  </si>
-  <si>
-    <t>防御建筑Ⅱ</t>
-  </si>
-  <si>
-    <t>视野基站</t>
-  </si>
-  <si>
-    <t>伤害计算公式：攻击力*（100-防御力）*伤害类型百分比=最终伤害值</t>
-  </si>
-  <si>
-    <t>建造时间单位：3秒</t>
-  </si>
-  <si>
-    <t>速度：单位每秒可以移动的单元格数</t>
-  </si>
-  <si>
-    <t>视野单位：5个长度单位</t>
-  </si>
-  <si>
-    <t>采集速度：每秒5金/每单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,345 +275,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -620,255 +297,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -878,65 +313,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1223,27 +611,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.2222222222222" customWidth="1"/>
-    <col min="9" max="9" width="24.2222222222222" customWidth="1"/>
-    <col min="12" max="12" width="11.2222222222222" customWidth="1"/>
-    <col min="17" max="17" width="30.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="22.25" customWidth="1"/>
+    <col min="9" max="9" width="24.25" customWidth="1"/>
+    <col min="11" max="11" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.25" customWidth="1"/>
+    <col min="17" max="17" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1275,30 +664,30 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="L1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1" spans="1:16">
-      <c r="A2" t="s">
-        <v>17</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -1322,7 +711,7 @@
         <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J2">
         <v>50</v>
@@ -1331,24 +720,24 @@
         <v>0.5</v>
       </c>
       <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" t="s">
         <v>19</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2" t="s">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>20</v>
-      </c>
-      <c r="P2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:16">
-      <c r="A3" t="s">
-        <v>22</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -1372,7 +761,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J3">
         <v>100</v>
@@ -1381,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -1390,15 +779,15 @@
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>200</v>
@@ -1422,7 +811,7 @@
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J4">
         <v>150</v>
@@ -1431,7 +820,7 @@
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -1440,15 +829,15 @@
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:16">
-      <c r="A5" t="s">
-        <v>26</v>
       </c>
       <c r="B5">
         <v>250</v>
@@ -1472,7 +861,7 @@
         <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J5">
         <v>250</v>
@@ -1481,7 +870,7 @@
         <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -1490,15 +879,15 @@
         <v>1</v>
       </c>
       <c r="O5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>28</v>
-      </c>
-      <c r="P5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" t="s">
-        <v>30</v>
       </c>
       <c r="B6">
         <v>1000</v>
@@ -1522,7 +911,7 @@
         <v>8</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J6">
         <v>1250</v>
@@ -1531,7 +920,7 @@
         <v>8</v>
       </c>
       <c r="L6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -1540,18 +929,18 @@
         <v>1</v>
       </c>
       <c r="O6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" t="s">
         <v>32</v>
       </c>
-      <c r="P6" t="s">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>33</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:16">
-      <c r="A7" t="s">
-        <v>35</v>
       </c>
       <c r="B7">
         <v>500</v>
@@ -1575,7 +964,7 @@
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J7">
         <v>500</v>
@@ -1584,7 +973,7 @@
         <v>5</v>
       </c>
       <c r="L7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1593,15 +982,15 @@
         <v>1</v>
       </c>
       <c r="O7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>37</v>
-      </c>
-      <c r="P7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" t="s">
-        <v>39</v>
       </c>
       <c r="B8">
         <v>500</v>
@@ -1625,7 +1014,7 @@
         <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J8">
         <v>800</v>
@@ -1634,27 +1023,27 @@
         <v>5</v>
       </c>
       <c r="L8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>40</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" t="s">
-        <v>42</v>
       </c>
       <c r="B9">
         <v>500</v>
@@ -1678,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J9">
         <v>600</v>
@@ -1687,7 +1076,7 @@
         <v>5</v>
       </c>
       <c r="L9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1696,18 +1085,18 @@
         <v>1</v>
       </c>
       <c r="O9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:16">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>400</v>
@@ -1731,7 +1120,7 @@
         <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J10">
         <v>800</v>
@@ -1740,7 +1129,7 @@
         <v>5</v>
       </c>
       <c r="L10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -1749,15 +1138,15 @@
         <v>1</v>
       </c>
       <c r="O10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:16">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>1000</v>
@@ -1781,7 +1170,7 @@
         <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J11">
         <v>1000</v>
@@ -1790,7 +1179,7 @@
         <v>8</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -1799,15 +1188,15 @@
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:16">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12">
         <v>400</v>
@@ -1831,7 +1220,7 @@
         <v>4</v>
       </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J12">
         <v>800</v>
@@ -1840,7 +1229,7 @@
         <v>8</v>
       </c>
       <c r="L12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -1849,15 +1238,15 @@
         <v>1</v>
       </c>
       <c r="O12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13">
         <v>1500</v>
@@ -1881,7 +1270,7 @@
         <v>5</v>
       </c>
       <c r="I13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J13">
         <v>1500</v>
@@ -1890,7 +1279,7 @@
         <v>8</v>
       </c>
       <c r="L13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -1899,18 +1288,18 @@
         <v>1</v>
       </c>
       <c r="O13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>200</v>
@@ -1934,7 +1323,7 @@
         <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J14">
         <v>200</v>
@@ -1943,24 +1332,24 @@
         <v>3</v>
       </c>
       <c r="L14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>55</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14" t="s">
-        <v>56</v>
-      </c>
-      <c r="P14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:16">
-      <c r="A15" t="s">
-        <v>57</v>
       </c>
       <c r="B15">
         <v>100</v>
@@ -1984,7 +1373,7 @@
         <v>8</v>
       </c>
       <c r="I15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J15">
         <v>300</v>
@@ -1993,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="L15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -2002,15 +1391,15 @@
         <v>1</v>
       </c>
       <c r="O15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:16">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B16">
         <v>500</v>
@@ -2034,7 +1423,7 @@
         <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J16">
         <v>300</v>
@@ -2043,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="L16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -2052,15 +1441,15 @@
         <v>1</v>
       </c>
       <c r="O16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="1:16">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B17">
         <v>100</v>
@@ -2084,7 +1473,7 @@
         <v>10</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J17">
         <v>300</v>
@@ -2093,7 +1482,7 @@
         <v>5</v>
       </c>
       <c r="L17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -2102,35 +1491,35 @@
         <v>1</v>
       </c>
       <c r="O17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="1:1">
-      <c r="A19" t="s">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="1:1">
-      <c r="A20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:1">
-      <c r="A21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="1:16">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B22">
         <v>5000</v>
@@ -2154,7 +1543,7 @@
         <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J22">
         <v>5000</v>
@@ -2163,7 +1552,7 @@
         <v>10</v>
       </c>
       <c r="L22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -2172,15 +1561,15 @@
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:16">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>3500</v>
@@ -2204,7 +1593,7 @@
         <v>10</v>
       </c>
       <c r="I23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J23">
         <v>500</v>
@@ -2213,7 +1602,7 @@
         <v>10</v>
       </c>
       <c r="L23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -2222,15 +1611,15 @@
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:16">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B24">
         <v>4000</v>
@@ -2254,7 +1643,7 @@
         <v>10</v>
       </c>
       <c r="I24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J24">
         <v>1000</v>
@@ -2263,7 +1652,7 @@
         <v>10</v>
       </c>
       <c r="L24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -2272,15 +1661,15 @@
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="1:16">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>1500</v>
@@ -2304,7 +1693,7 @@
         <v>10</v>
       </c>
       <c r="I25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J25">
         <v>4000</v>
@@ -2313,7 +1702,7 @@
         <v>10</v>
       </c>
       <c r="L25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -2322,15 +1711,15 @@
         <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="1:16">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B26">
         <v>2500</v>
@@ -2354,7 +1743,7 @@
         <v>10</v>
       </c>
       <c r="I26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J26">
         <v>3000</v>
@@ -2363,7 +1752,7 @@
         <v>10</v>
       </c>
       <c r="L26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -2372,15 +1761,15 @@
         <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" spans="1:16">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B27">
         <v>3500</v>
@@ -2404,7 +1793,7 @@
         <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J27">
         <v>1000</v>
@@ -2413,7 +1802,7 @@
         <v>10</v>
       </c>
       <c r="L27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -2422,15 +1811,15 @@
         <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="1:16">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B28">
         <v>3000</v>
@@ -2454,7 +1843,7 @@
         <v>10</v>
       </c>
       <c r="I28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J28">
         <v>600</v>
@@ -2463,7 +1852,7 @@
         <v>10</v>
       </c>
       <c r="L28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -2472,15 +1861,15 @@
         <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" spans="1:16">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B29">
         <v>2000</v>
@@ -2504,7 +1893,7 @@
         <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J29">
         <v>600</v>
@@ -2513,7 +1902,7 @@
         <v>10</v>
       </c>
       <c r="L29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -2522,15 +1911,15 @@
         <v>0</v>
       </c>
       <c r="O29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" spans="1:16">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B30">
         <v>2000</v>
@@ -2554,7 +1943,7 @@
         <v>10</v>
       </c>
       <c r="I30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J30">
         <v>500</v>
@@ -2563,7 +1952,7 @@
         <v>10</v>
       </c>
       <c r="L30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -2572,15 +1961,15 @@
         <v>1</v>
       </c>
       <c r="O30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" spans="1:16">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B31">
         <v>1000</v>
@@ -2604,7 +1993,7 @@
         <v>20</v>
       </c>
       <c r="I31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J31">
         <v>500</v>
@@ -2613,7 +2002,7 @@
         <v>10</v>
       </c>
       <c r="L31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -2622,15 +2011,15 @@
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2649,9 +2038,9 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2670,9 +2059,9 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2691,47 +2080,47 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2741,42 +2130,36 @@
     <mergeCell ref="A35:Q35"/>
     <mergeCell ref="A36:Q36"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>